--- a/features/backlog/iPhone/get_support.xlsx
+++ b/features/backlog/iPhone/get_support.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\iPhone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB22D83-9782-43DA-A45A-788943E898E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DAB00-39FA-4E3C-B321-4C52721467BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,14 +409,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -483,6 +475,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,8 +1185,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1202,15 +1202,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1232,13 +1232,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1260,19 +1260,19 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1302,23 +1302,23 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="4"/>
@@ -1342,20 +1342,20 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="5"/>
@@ -1380,20 +1380,20 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="5"/>
@@ -1418,20 +1418,20 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="30" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="5"/>
@@ -1456,11 +1456,11 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="4"/>
